--- a/4 Product Backlog/User Story.xlsx
+++ b/4 Product Backlog/User Story.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quản trị dự án CNTT\product Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Save\Phenikaa University\PM\Capstone-Project-Scenario-Phenikaa\4 Product Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590BCC96-3563-4829-B42A-362FA26D1F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A99314E-8361-48DE-8893-51D93E1D6093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{78EF6C84-D237-4D3C-AE97-C882FBE949AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{78EF6C84-D237-4D3C-AE97-C882FBE949AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="User Story Examples" sheetId="2" r:id="rId1"/>
+    <sheet name="User Story" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -408,45 +408,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -466,6 +427,45 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -806,13 +806,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -835,10 +835,10 @@
         <v>49</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -848,10 +848,10 @@
         <v>59</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -866,13 +866,13 @@
     </row>
     <row r="6" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
@@ -895,10 +895,10 @@
         <v>56</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -926,13 +926,13 @@
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -942,10 +942,10 @@
         <v>0</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -955,10 +955,10 @@
         <v>49</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -968,10 +968,10 @@
         <v>61</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -981,18 +981,18 @@
         <v>10</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
@@ -1002,10 +1002,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="10"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
@@ -1015,10 +1015,10 @@
         <v>49</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="19"/>
     </row>
     <row r="22" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -1028,10 +1028,10 @@
         <v>62</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -1041,18 +1041,18 @@
         <v>11</v>
       </c>
       <c r="C23" s="6"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
     </row>
     <row r="24" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="10"/>
+      <c r="E26" s="24"/>
     </row>
     <row r="27" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
@@ -1075,10 +1075,10 @@
         <v>49</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="22"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
@@ -1088,10 +1088,10 @@
         <v>63</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="13"/>
+      <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
@@ -1101,18 +1101,18 @@
         <v>12</v>
       </c>
       <c r="C29" s="6"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23"/>
     </row>
     <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
@@ -1122,10 +1122,10 @@
         <v>0</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="10"/>
+      <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
@@ -1135,10 +1135,10 @@
         <v>49</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="13"/>
+      <c r="E33" s="19"/>
     </row>
     <row r="34" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
@@ -1148,10 +1148,10 @@
         <v>64</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="13"/>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -1161,24 +1161,24 @@
         <v>13</v>
       </c>
       <c r="C35" s="6"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23"/>
     </row>
     <row r="36" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
     </row>
     <row r="38" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
@@ -1188,10 +1188,10 @@
         <v>0</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="10"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
@@ -1201,10 +1201,10 @@
         <v>49</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="13"/>
+      <c r="E39" s="19"/>
     </row>
     <row r="40" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
@@ -1214,10 +1214,10 @@
         <v>65</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="13"/>
+      <c r="E40" s="19"/>
     </row>
     <row r="41" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
@@ -1227,24 +1227,24 @@
         <v>14</v>
       </c>
       <c r="C41" s="6"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
-    </row>
-    <row r="42" spans="1:5" s="27" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="26"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="23"/>
+    </row>
+    <row r="42" spans="1:5" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="16"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="28"/>
     </row>
     <row r="44" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
@@ -1254,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E44" s="18"/>
+      <c r="E44" s="30"/>
     </row>
     <row r="45" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
@@ -1280,10 +1280,10 @@
         <v>66</v>
       </c>
       <c r="C46" s="6"/>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E46" s="13"/>
+      <c r="E46" s="19"/>
     </row>
     <row r="47" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
@@ -1293,24 +1293,24 @@
         <v>15</v>
       </c>
       <c r="C47" s="6"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="13"/>
-    </row>
-    <row r="48" spans="1:5" s="27" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="19"/>
+    </row>
+    <row r="48" spans="1:5" s="14" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
     </row>
     <row r="49" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
     </row>
     <row r="50" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
@@ -1320,10 +1320,10 @@
         <v>0</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="10"/>
+      <c r="E50" s="24"/>
     </row>
     <row r="51" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
@@ -1346,10 +1346,10 @@
         <v>67</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E52" s="13"/>
+      <c r="E52" s="19"/>
     </row>
     <row r="53" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -1359,24 +1359,24 @@
         <v>16</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="13"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="19"/>
     </row>
     <row r="54" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="29"/>
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="16"/>
     </row>
     <row r="55" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
     </row>
     <row r="56" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
@@ -1386,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="10"/>
+      <c r="E56" s="24"/>
     </row>
     <row r="57" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
@@ -1412,10 +1412,10 @@
         <v>68</v>
       </c>
       <c r="C58" s="6"/>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="13"/>
+      <c r="E58" s="19"/>
     </row>
     <row r="59" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
@@ -1425,24 +1425,24 @@
         <v>17</v>
       </c>
       <c r="C59" s="6"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="13"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="19"/>
     </row>
     <row r="60" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="29"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="16"/>
     </row>
     <row r="61" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
     </row>
     <row r="62" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
@@ -1452,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="10"/>
+      <c r="E62" s="24"/>
     </row>
     <row r="63" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
@@ -1478,10 +1478,10 @@
         <v>69</v>
       </c>
       <c r="C64" s="6"/>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E64" s="13"/>
+      <c r="E64" s="19"/>
     </row>
     <row r="65" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
@@ -1491,24 +1491,24 @@
         <v>18</v>
       </c>
       <c r="C65" s="6"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="13"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="19"/>
     </row>
     <row r="66" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="29"/>
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="16"/>
     </row>
     <row r="67" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
     </row>
     <row r="68" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
@@ -1518,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="C68" s="2"/>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E68" s="10"/>
+      <c r="E68" s="24"/>
     </row>
     <row r="69" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
@@ -1544,37 +1544,37 @@
         <v>70</v>
       </c>
       <c r="C70" s="6"/>
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E70" s="13"/>
+      <c r="E70" s="19"/>
     </row>
     <row r="71" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C71" s="6"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="13"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="19"/>
     </row>
     <row r="72" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="24"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="29"/>
+      <c r="A72" s="11"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="16"/>
     </row>
     <row r="73" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
     </row>
     <row r="74" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="C74" s="2"/>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E74" s="10"/>
+      <c r="E74" s="24"/>
     </row>
     <row r="75" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
@@ -1606,14 +1606,14 @@
       <c r="A76" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C76" s="6"/>
-      <c r="D76" s="12" t="s">
+      <c r="D76" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E76" s="13"/>
+      <c r="E76" s="19"/>
     </row>
     <row r="77" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
@@ -1623,24 +1623,24 @@
         <v>19</v>
       </c>
       <c r="C77" s="6"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="13"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="19"/>
     </row>
     <row r="78" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="24"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="29"/>
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="16"/>
     </row>
     <row r="79" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
     </row>
     <row r="80" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
@@ -1650,10 +1650,10 @@
         <v>0</v>
       </c>
       <c r="C80" s="2"/>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E80" s="10"/>
+      <c r="E80" s="24"/>
     </row>
     <row r="81" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
@@ -1676,10 +1676,10 @@
         <v>72</v>
       </c>
       <c r="C82" s="6"/>
-      <c r="D82" s="12" t="s">
+      <c r="D82" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E82" s="13"/>
+      <c r="E82" s="19"/>
     </row>
     <row r="83" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
@@ -1689,24 +1689,24 @@
         <v>20</v>
       </c>
       <c r="C83" s="6"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="13"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="19"/>
     </row>
     <row r="84" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="24"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="29"/>
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="16"/>
     </row>
     <row r="85" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
     </row>
     <row r="86" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
@@ -1716,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="C86" s="2"/>
-      <c r="D86" s="10" t="s">
+      <c r="D86" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E86" s="10"/>
+      <c r="E86" s="24"/>
     </row>
     <row r="87" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
@@ -1742,10 +1742,10 @@
         <v>73</v>
       </c>
       <c r="C88" s="6"/>
-      <c r="D88" s="12" t="s">
+      <c r="D88" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E88" s="13"/>
+      <c r="E88" s="19"/>
     </row>
     <row r="89" spans="1:5" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
@@ -1755,21 +1755,46 @@
         <v>52</v>
       </c>
       <c r="C89" s="6"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="13"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D70:E70"/>
     <mergeCell ref="D89:E89"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
@@ -1786,42 +1811,17 @@
     <mergeCell ref="D80:E80"/>
     <mergeCell ref="A85:E85"/>
     <mergeCell ref="D86:E86"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D47:E47"/>
     <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="D50:E50"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="D56:E56"/>
   </mergeCells>
